--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Diverse\Facultate\Verificarea si validarea sistemelor soft\Liga-Legendelor-VVSS-\Docs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CyAN1D3\School 3-1\3-2\VVSS\02InventoryMv\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8A82C4-F759-4152-A282-7A03EDC8555F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6FE4F2-E076-43DE-B9AE-EBDDAE34C30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="0" windowWidth="17496" windowHeight="12240" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18150" windowHeight="15450" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -18,23 +18,12 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -172,6 +161,24 @@
   </si>
   <si>
     <t>Cuvantul "gestioneaza" este prea vag, ar trebui explicat mai in detaliu ce anume se vrea implementat, concret. Astfel, poate se doreste mai mult sau mai putin decat CRUD-ul care s-a interpretat.</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>Clasa "Inventory" este implementarea unei metode de stocare a datelor. Clasa "Repository" face apeluri CRUD catre aceasta clasa, astfel ar trebui sa se afle in pachetul "repository" si nu sub "model".</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>Utilizatorul nu este avertizat de toate erorile din program, cele din stratul de repository sunt marcate doar in consola.</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>Clasele si functiile nu au descrieri.</t>
   </si>
 </sst>
 </file>
@@ -363,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -379,7 +386,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -391,12 +397,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -418,6 +427,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -436,7 +448,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -782,23 +794,23 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="6"/>
+    <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -809,7 +821,7 @@
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
         <v>19</v>
       </c>
@@ -817,61 +829,61 @@
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="18" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="28"/>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="21" t="s">
         <v>36</v>
       </c>
       <c r="J4" s="3">
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="14" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="30"/>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="3">
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -881,7 +893,7 @@
       </c>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
@@ -890,7 +902,7 @@
       </c>
       <c r="E7" s="25"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -900,25 +912,25 @@
       <c r="D9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -926,14 +938,14 @@
       <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
@@ -941,138 +953,135 @@
       <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="23"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="23"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="23"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="23"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="23"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="23"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="23"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="23"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="23"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="23"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="23"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D24" s="23"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="12" t="s">
+      <c r="D25" s="23"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1">
         <v>1</v>
       </c>
@@ -1098,22 +1107,22 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="22" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1124,7 +1133,7 @@
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
@@ -1132,21 +1141,25 @@
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="18" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="17">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1154,42 +1167,54 @@
         <v>15</v>
       </c>
       <c r="E4" s="31"/>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="H5" s="18" t="s">
+      <c r="E5" s="34"/>
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="32">
+        <v>44997</v>
+      </c>
       <c r="E7" s="25"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1203,167 +1228,178 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="24" t="s">
+        <v>46</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="12" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1390,19 +1426,19 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1413,7 +1449,7 @@
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
         <v>17</v>
       </c>
@@ -1421,49 +1457,49 @@
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="18" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="17" t="s">
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="H4" s="18" t="s">
+      <c r="E4" s="35"/>
+      <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="17" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="H5" s="18" t="s">
+      <c r="E5" s="37"/>
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -1471,14 +1507,14 @@
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1492,7 +1528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1500,7 +1536,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1509,7 +1545,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1518,7 +1554,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1527,7 +1563,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1536,7 +1572,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1545,7 +1581,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1554,7 +1590,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1563,7 +1599,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1572,7 +1608,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1581,7 +1617,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1590,7 +1626,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1599,7 +1635,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1608,7 +1644,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1617,7 +1653,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1626,7 +1662,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1635,7 +1671,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1644,7 +1680,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1653,7 +1689,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1662,7 +1698,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1671,7 +1707,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1680,14 +1716,11 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="12" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="13"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="1"/>
     </row>
   </sheetData>
@@ -1715,20 +1748,20 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
     <col min="5" max="5" width="24" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="6" max="6" width="16.7109375" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1739,7 +1772,7 @@
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
         <v>31</v>
       </c>
@@ -1747,54 +1780,54 @@
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="18" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="17" t="s">
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="H4" s="18" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F6" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1811,7 +1844,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1820,7 +1853,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1830,7 +1863,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1840,7 +1873,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1850,7 +1883,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1860,7 +1893,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1870,7 +1903,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1880,7 +1913,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1890,7 +1923,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1900,7 +1933,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1910,7 +1943,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1920,7 +1953,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1930,7 +1963,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1940,7 +1973,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1950,7 +1983,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1960,7 +1993,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1970,7 +2003,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1980,7 +2013,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1990,7 +2023,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2000,7 +2033,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2010,7 +2043,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2020,16 +2053,13 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="37" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="19"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CyAN1D3\School 3-1\3-2\VVSS\02InventoryMv\Docs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PIOS\Liga-Legendelor-VVSS-\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6FE4F2-E076-43DE-B9AE-EBDDAE34C30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18150" windowHeight="15450" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18156" windowHeight="15456" tabRatio="650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -18,12 +17,12 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -179,12 +178,42 @@
   </si>
   <si>
     <t>Clasele si functiile nu au descrieri.</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Part.java/23</t>
+  </si>
+  <si>
+    <t>13.03.2023</t>
+  </si>
+  <si>
+    <t>InventoryRepository/206</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>Cantitatea din stoc ar trebui sa poata atinge si valoarea 0, caz in care trebuie corectat din "1" in "0".</t>
+  </si>
+  <si>
+    <t>O parte ar putea fi stearsa astfel incat sa un produs sa ramana cu 0 piese. Inainte de stergere se verifica daca partea este folosita in produse.</t>
+  </si>
+  <si>
+    <t>InventoryService/19</t>
+  </si>
+  <si>
+    <t>InventoryService/53</t>
+  </si>
+  <si>
+    <t>MachineId ar trebui sa fie mai mare ca 0.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -450,6 +479,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,23 +576,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -596,23 +611,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -788,29 +786,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I3" sqref="I3:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="6"/>
+    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -821,7 +819,7 @@
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="27" t="s">
         <v>19</v>
       </c>
@@ -836,7 +834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
@@ -847,7 +845,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
@@ -865,7 +863,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
@@ -883,7 +881,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -893,7 +891,7 @@
       </c>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
@@ -902,7 +900,7 @@
       </c>
       <c r="E7" s="25"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -916,7 +914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -930,7 +928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -945,7 +943,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
@@ -960,7 +958,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -969,7 +967,7 @@
       <c r="D13" s="22"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -978,7 +976,7 @@
       <c r="D14" s="22"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -987,7 +985,7 @@
       <c r="D15" s="22"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -996,7 +994,7 @@
       <c r="D16" s="22"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1005,7 +1003,7 @@
       <c r="D17" s="22"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1014,7 +1012,7 @@
       <c r="D18" s="23"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1023,7 +1021,7 @@
       <c r="D19" s="23"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1032,7 +1030,7 @@
       <c r="D20" s="23"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1041,7 +1039,7 @@
       <c r="D21" s="23"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1050,7 +1048,7 @@
       <c r="D22" s="23"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1059,7 +1057,7 @@
       <c r="D23" s="23"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1068,7 +1066,7 @@
       <c r="D24" s="23"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1077,7 +1075,7 @@
       <c r="D25" s="23"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
@@ -1101,28 +1099,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="I3:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
     <col min="9" max="9" width="22" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="6"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1133,7 +1131,7 @@
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
@@ -1148,7 +1146,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
@@ -1159,7 +1157,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1175,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1195,7 +1193,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -1205,7 +1203,7 @@
       </c>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
@@ -1214,7 +1212,7 @@
       </c>
       <c r="E7" s="25"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1228,7 +1226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1240,7 +1238,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1253,7 +1251,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
@@ -1266,7 +1264,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1275,7 +1273,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1284,7 +1282,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1293,7 +1291,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1302,7 +1300,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1311,7 +1309,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1320,7 +1318,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1329,7 +1327,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1338,7 +1336,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1347,7 +1345,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1356,7 +1354,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1365,7 +1363,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1374,7 +1372,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1383,7 +1381,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1392,7 +1390,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C28" s="11" t="s">
         <v>8</v>
       </c>
@@ -1416,29 +1414,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="6"/>
-    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.6640625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1449,7 +1447,7 @@
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="27" t="s">
         <v>17</v>
       </c>
@@ -1464,14 +1462,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="17">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
@@ -1482,10 +1484,14 @@
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
@@ -1496,25 +1502,33 @@
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="E6" s="25"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="E7" s="25"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1528,42 +1542,66 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1572,7 +1610,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1581,7 +1619,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1590,7 +1628,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1599,7 +1637,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1608,7 +1646,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1617,7 +1655,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1626,7 +1664,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1635,7 +1673,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1644,7 +1682,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1653,7 +1691,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1662,7 +1700,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1671,7 +1709,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1680,7 +1718,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1689,7 +1727,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1698,7 +1736,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1707,7 +1745,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1716,12 +1754,14 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C32" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="12"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1738,7 +1778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
@@ -1748,20 +1788,20 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
     <col min="5" max="5" width="24" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.85546875" style="6"/>
-    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="6"/>
+    <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="26.6640625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1772,7 +1812,7 @@
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="27" t="s">
         <v>31</v>
       </c>
@@ -1787,14 +1827,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
@@ -1806,7 +1846,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1818,7 +1858,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
@@ -1827,7 +1867,7 @@
       <c r="E6" s="25"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1844,7 +1884,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1853,7 +1893,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1863,7 +1903,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1873,7 +1913,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1883,7 +1923,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1893,7 +1933,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1903,7 +1943,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1913,7 +1953,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1923,7 +1963,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1933,7 +1973,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1943,7 +1983,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1953,7 +1993,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1963,7 +2003,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1973,7 +2013,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1983,7 +2023,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1993,7 +2033,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2003,7 +2043,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2013,7 +2053,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2023,7 +2063,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2033,7 +2073,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2043,7 +2083,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2053,7 +2093,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C32" s="38" t="s">
         <v>32</v>
       </c>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18156" windowHeight="15456" tabRatio="650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18156" windowHeight="15456" tabRatio="650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="89">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -208,13 +208,325 @@
   </si>
   <si>
     <t>MachineId ar trebui sa fie mai mare ca 0.</t>
+  </si>
+  <si>
+    <t>Product, 99</t>
+  </si>
+  <si>
+    <t>Unnecessary Integer constructor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Integer(p.getPartId()).toString()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Integer.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>toString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(p.getPartId())</t>
+    </r>
+  </si>
+  <si>
+    <t>Product, 61</t>
+  </si>
+  <si>
+    <t>Remove self-assginment</t>
+  </si>
+  <si>
+    <r>
+      <t>associatedParts = associatedParts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>Remove commented-out code</t>
+  </si>
+  <si>
+    <t>// = FXCollections.observableArrayList();</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Product, 11</t>
+  </si>
+  <si>
+    <t>SonarLint</t>
+  </si>
+  <si>
+    <t>Method has 8 parameters, more than 7 authorized</t>
+  </si>
+  <si>
+    <t>Changing the number of parameters at this point is a problem of which, a rather complex decision based on the architecture of the application</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">try </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(BufferedReader br = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>BufferedReader(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>FileReader(file)))</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">br = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>BufferedReader(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>FileReader(file))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>InventoryService, 52</t>
+  </si>
+  <si>
+    <t>InventoryService, 60</t>
+  </si>
+  <si>
+    <t>InventoryService, 65</t>
+  </si>
+  <si>
+    <t>InventoryRepository, 28</t>
+  </si>
+  <si>
+    <t>InventoryRepository, 81</t>
+  </si>
+  <si>
+    <t>InventoryRepository, 136</t>
+  </si>
+  <si>
+    <t>Use try-with-resosurces</t>
+  </si>
+  <si>
+    <t>Sava Radu-Florian, Popa Iulian, Roszinecs Norbert</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">try </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(BufferedWriter bw = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>BufferedWriter(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>FileWriter(file)))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bw = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>BufferedWriter(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>FileWriter(file))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +610,31 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFCC7832"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808080"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -399,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -434,6 +771,9 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -480,8 +820,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,7 +1142,7 @@
       <selection activeCell="I3" sqref="I3:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
@@ -808,24 +1154,24 @@
     <col min="11" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.6">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -834,7 +1180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
@@ -845,14 +1191,14 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -863,14 +1209,14 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -881,26 +1227,26 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E7" s="26"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -914,7 +1260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="72">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -928,7 +1274,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="86.4">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -943,7 +1289,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="86.4">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
@@ -958,7 +1304,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -967,7 +1313,7 @@
       <c r="D13" s="22"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -976,7 +1322,7 @@
       <c r="D14" s="22"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -985,7 +1331,7 @@
       <c r="D15" s="22"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -994,7 +1340,7 @@
       <c r="D16" s="22"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1003,7 +1349,7 @@
       <c r="D17" s="22"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1012,7 +1358,7 @@
       <c r="D18" s="23"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1021,7 +1367,7 @@
       <c r="D19" s="23"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1030,7 +1376,7 @@
       <c r="D20" s="23"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1039,7 +1385,7 @@
       <c r="D21" s="23"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1048,7 +1394,7 @@
       <c r="D22" s="23"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1057,7 +1403,7 @@
       <c r="D23" s="23"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1066,7 +1412,7 @@
       <c r="D24" s="23"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1075,7 +1421,7 @@
       <c r="D25" s="23"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5">
       <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
@@ -1109,7 +1455,7 @@
       <selection activeCell="J5" sqref="I3:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
@@ -1120,24 +1466,24 @@
     <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.6">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1146,7 +1492,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
@@ -1157,14 +1503,14 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1175,14 +1521,14 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="35"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1193,26 +1539,26 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="33">
         <v>44997</v>
       </c>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E7" s="26"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1226,7 +1572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="72">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1238,7 +1584,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="43.2">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1251,7 +1597,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
@@ -1264,7 +1610,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1273,7 +1619,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1282,7 +1628,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1291,7 +1637,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1300,7 +1646,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1309,7 +1655,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1318,7 +1664,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1327,7 +1673,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1336,7 +1682,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1345,7 +1691,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1354,7 +1700,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1363,7 +1709,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1372,7 +1718,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1381,7 +1727,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1390,7 +1736,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5">
       <c r="C28" s="11" t="s">
         <v>8</v>
       </c>
@@ -1420,11 +1766,11 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="I3:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
@@ -1436,24 +1782,24 @@
     <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.6">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1462,7 +1808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
@@ -1473,14 +1819,14 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="35"/>
+      <c r="E4" s="36"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
@@ -1491,14 +1837,14 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="37"/>
+      <c r="E5" s="38"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
@@ -1509,26 +1855,26 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E7" s="26"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1542,21 +1888,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="43.2">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="43.2">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1567,11 +1913,11 @@
       <c r="D11" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1582,11 +1928,11 @@
       <c r="D12" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1594,14 +1940,14 @@
       <c r="C13" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1610,7 +1956,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1619,7 +1965,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1628,7 +1974,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1637,7 +1983,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1646,7 +1992,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1655,7 +2001,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1664,7 +2010,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1673,7 +2019,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1682,7 +2028,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1691,7 +2037,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1700,7 +2046,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1709,7 +2055,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1718,7 +2064,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1727,7 +2073,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1736,7 +2082,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1745,7 +2091,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1754,7 +2100,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5">
       <c r="C32" s="11" t="s">
         <v>8</v>
       </c>
@@ -1784,41 +2130,41 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="52.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="74.109375" style="6" customWidth="1"/>
     <col min="7" max="8" width="8.88671875" style="6"/>
     <col min="9" max="9" width="26.6640625" style="6" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.6">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1827,47 +2173,65 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="17">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
+      <c r="D4" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="36"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="26"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="D6" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="26"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1884,106 +2248,180 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.2">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="43.2">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.8">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1993,7 +2431,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2003,7 +2441,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2013,7 +2451,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2023,7 +2461,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2033,7 +2471,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2043,7 +2481,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2053,7 +2491,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2063,7 +2501,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2073,7 +2511,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2083,7 +2521,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2093,13 +2531,15 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="38" t="s">
+    <row r="32" spans="2:6">
+      <c r="C32" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="18"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="18">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
